--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H2">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I2">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J2">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N2">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O2">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P2">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q2">
-        <v>76.12598130954741</v>
+        <v>105.456288252172</v>
       </c>
       <c r="R2">
-        <v>76.12598130954741</v>
+        <v>949.1065942695481</v>
       </c>
       <c r="S2">
-        <v>0.0075709541441547</v>
+        <v>0.00900923418601478</v>
       </c>
       <c r="T2">
-        <v>0.0075709541441547</v>
+        <v>0.00900923418601478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H3">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I3">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J3">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N3">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O3">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P3">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q3">
-        <v>9.873425113671026</v>
+        <v>13.176930117868</v>
       </c>
       <c r="R3">
-        <v>9.873425113671026</v>
+        <v>118.592371060812</v>
       </c>
       <c r="S3">
-        <v>0.0009819413490039799</v>
+        <v>0.001125718070038171</v>
       </c>
       <c r="T3">
-        <v>0.0009819413490039799</v>
+        <v>0.001125718070038171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H4">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I4">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J4">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N4">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O4">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P4">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q4">
-        <v>410.8365283624608</v>
+        <v>684.3637519882825</v>
       </c>
       <c r="R4">
-        <v>410.8365283624608</v>
+        <v>6159.273767894543</v>
       </c>
       <c r="S4">
-        <v>0.04085890865995057</v>
+        <v>0.0584658668749911</v>
       </c>
       <c r="T4">
-        <v>0.04085890865995057</v>
+        <v>0.0584658668749911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H5">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I5">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J5">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N5">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O5">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P5">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q5">
-        <v>646.115796285478</v>
+        <v>829.7800738401826</v>
       </c>
       <c r="R5">
-        <v>646.115796285478</v>
+        <v>7468.020664561644</v>
       </c>
       <c r="S5">
-        <v>0.06425812818885601</v>
+        <v>0.07088892594283841</v>
       </c>
       <c r="T5">
-        <v>0.06425812818885601</v>
+        <v>0.07088892594283842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H6">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I6">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J6">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N6">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O6">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P6">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q6">
-        <v>79.92357031103222</v>
+        <v>104.4633138587866</v>
       </c>
       <c r="R6">
-        <v>79.92357031103222</v>
+        <v>940.1698247290799</v>
       </c>
       <c r="S6">
-        <v>0.007948635609720017</v>
+        <v>0.008924403409216221</v>
       </c>
       <c r="T6">
-        <v>0.007948635609720017</v>
+        <v>0.008924403409216221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H7">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I7">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J7">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N7">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O7">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P7">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q7">
-        <v>44.34546975236975</v>
+        <v>61.69639889658666</v>
       </c>
       <c r="R7">
-        <v>44.34546975236975</v>
+        <v>555.26759006928</v>
       </c>
       <c r="S7">
-        <v>0.004410288211996865</v>
+        <v>0.005270783898291481</v>
       </c>
       <c r="T7">
-        <v>0.004410288211996865</v>
+        <v>0.005270783898291481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H8">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I8">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J8">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N8">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O8">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P8">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q8">
-        <v>309.8266496551481</v>
+        <v>336.5536355372317</v>
       </c>
       <c r="R8">
-        <v>309.8266496551481</v>
+        <v>3028.982719835085</v>
       </c>
       <c r="S8">
-        <v>0.03081317727305308</v>
+        <v>0.02875210733246281</v>
       </c>
       <c r="T8">
-        <v>0.03081317727305308</v>
+        <v>0.02875210733246281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H9">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I9">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J9">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N9">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O9">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P9">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q9">
-        <v>40.18404979439049</v>
+        <v>42.05290940815167</v>
       </c>
       <c r="R9">
-        <v>40.18404979439049</v>
+        <v>378.476184673365</v>
       </c>
       <c r="S9">
-        <v>0.003996422681011851</v>
+        <v>0.003592621315813279</v>
       </c>
       <c r="T9">
-        <v>0.003996422681011851</v>
+        <v>0.003592621315813279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H10">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I10">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J10">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N10">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O10">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P10">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q10">
-        <v>1672.071780866876</v>
+        <v>2184.081315386264</v>
       </c>
       <c r="R10">
-        <v>1672.071780866876</v>
+        <v>19656.73183847638</v>
       </c>
       <c r="S10">
-        <v>0.1662924872810873</v>
+        <v>0.1865882099373888</v>
       </c>
       <c r="T10">
-        <v>0.1662924872810873</v>
+        <v>0.1865882099373888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H11">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I11">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J11">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N11">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O11">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P11">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q11">
-        <v>2629.639566003093</v>
+        <v>2648.163567823223</v>
       </c>
       <c r="R11">
-        <v>2629.639566003093</v>
+        <v>23833.47211040901</v>
       </c>
       <c r="S11">
-        <v>0.2615254375363618</v>
+        <v>0.2262352121510446</v>
       </c>
       <c r="T11">
-        <v>0.2615254375363618</v>
+        <v>0.2262352121510446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H12">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I12">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J12">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N12">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O12">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P12">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q12">
-        <v>325.282532874741</v>
+        <v>333.3846529414278</v>
       </c>
       <c r="R12">
-        <v>325.282532874741</v>
+        <v>3000.46187647285</v>
       </c>
       <c r="S12">
-        <v>0.03235031060256816</v>
+        <v>0.02848137803968956</v>
       </c>
       <c r="T12">
-        <v>0.03235031060256816</v>
+        <v>0.02848137803968956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H13">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I13">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J13">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N13">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O13">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P13">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q13">
-        <v>180.4825118101602</v>
+        <v>196.8981432245111</v>
       </c>
       <c r="R13">
-        <v>180.4825118101602</v>
+        <v>1772.0832890206</v>
       </c>
       <c r="S13">
-        <v>0.01794951995666703</v>
+        <v>0.01682120158505166</v>
       </c>
       <c r="T13">
-        <v>0.01794951995666703</v>
+        <v>0.01682120158505166</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H14">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I14">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J14">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N14">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O14">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P14">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q14">
-        <v>61.66753562152564</v>
+        <v>69.779925895719</v>
       </c>
       <c r="R14">
-        <v>61.66753562152564</v>
+        <v>628.0193330614711</v>
       </c>
       <c r="S14">
-        <v>0.006133018929176583</v>
+        <v>0.005961367541914615</v>
       </c>
       <c r="T14">
-        <v>0.006133018929176583</v>
+        <v>0.005961367541914615</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H15">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I15">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J15">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N15">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O15">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P15">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q15">
-        <v>7.99818648547801</v>
+        <v>8.719112178111001</v>
       </c>
       <c r="R15">
-        <v>7.99818648547801</v>
+        <v>78.47200960299901</v>
       </c>
       <c r="S15">
-        <v>0.0007954433174624631</v>
+        <v>0.0007448823091411766</v>
       </c>
       <c r="T15">
-        <v>0.0007954433174624631</v>
+        <v>0.0007448823091411766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H16">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I16">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J16">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N16">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O16">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P16">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q16">
-        <v>332.8072204993505</v>
+        <v>452.840249651732</v>
       </c>
       <c r="R16">
-        <v>332.8072204993505</v>
+        <v>4075.562246865588</v>
       </c>
       <c r="S16">
-        <v>0.03309866305694712</v>
+        <v>0.03868658688432289</v>
       </c>
       <c r="T16">
-        <v>0.03309866305694712</v>
+        <v>0.03868658688432289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H17">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I17">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J17">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N17">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O17">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P17">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q17">
-        <v>523.4003975731739</v>
+        <v>549.061540302407</v>
       </c>
       <c r="R17">
-        <v>523.4003975731739</v>
+        <v>4941.553862721664</v>
       </c>
       <c r="S17">
-        <v>0.05205371859767225</v>
+        <v>0.04690686616325599</v>
       </c>
       <c r="T17">
-        <v>0.05205371859767225</v>
+        <v>0.046906866163256</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H18">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I18">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J18">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N18">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O18">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P18">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q18">
-        <v>64.74385662253462</v>
+        <v>69.12287944799</v>
       </c>
       <c r="R18">
-        <v>64.74385662253462</v>
+        <v>622.1059150319099</v>
       </c>
       <c r="S18">
-        <v>0.00643896815742539</v>
+        <v>0.005905235419148026</v>
       </c>
       <c r="T18">
-        <v>0.00643896815742539</v>
+        <v>0.005905235419148026</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H19">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I19">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J19">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N19">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O19">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P19">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q19">
-        <v>35.9230290180125</v>
+        <v>40.82421460484</v>
       </c>
       <c r="R19">
-        <v>35.9230290180125</v>
+        <v>367.41793144356</v>
       </c>
       <c r="S19">
-        <v>0.003572651553857891</v>
+        <v>0.003487652713090376</v>
       </c>
       <c r="T19">
-        <v>0.003572651553857891</v>
+        <v>0.003487652713090376</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H20">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I20">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J20">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N20">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O20">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P20">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q20">
-        <v>70.46345885776364</v>
+        <v>76.953973345587</v>
       </c>
       <c r="R20">
-        <v>70.46345885776364</v>
+        <v>692.5857601102831</v>
       </c>
       <c r="S20">
-        <v>0.007007799527488698</v>
+        <v>0.006574253455203069</v>
       </c>
       <c r="T20">
-        <v>0.007007799527488698</v>
+        <v>0.006574253455203069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H21">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I21">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J21">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N21">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O21">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P21">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q21">
-        <v>9.139004480657048</v>
+        <v>9.615520761003001</v>
       </c>
       <c r="R21">
-        <v>9.139004480657048</v>
+        <v>86.53968684902701</v>
       </c>
       <c r="S21">
-        <v>0.0009089010434549393</v>
+        <v>0.000821463373992578</v>
       </c>
       <c r="T21">
-        <v>0.0009089010434549393</v>
+        <v>0.000821463373992578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H22">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I22">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J22">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N22">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O22">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P22">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q22">
-        <v>380.2770396590479</v>
+        <v>499.396582243236</v>
       </c>
       <c r="R22">
-        <v>380.2770396590479</v>
+        <v>4494.569240189124</v>
       </c>
       <c r="S22">
-        <v>0.03781967706434636</v>
+        <v>0.04266394006174437</v>
       </c>
       <c r="T22">
-        <v>0.03781967706434636</v>
+        <v>0.04266394006174437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H23">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I23">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J23">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N23">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O23">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P23">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q23">
-        <v>598.055395092859</v>
+        <v>605.510346925011</v>
       </c>
       <c r="R23">
-        <v>598.055395092859</v>
+        <v>5449.593122325099</v>
       </c>
       <c r="S23">
-        <v>0.05947837905039251</v>
+        <v>0.05172934310429916</v>
       </c>
       <c r="T23">
-        <v>0.05947837905039251</v>
+        <v>0.05172934310429917</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H24">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I24">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J24">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N24">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O24">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P24">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q24">
-        <v>73.97856962233594</v>
+        <v>76.22937620427</v>
       </c>
       <c r="R24">
-        <v>73.97856962233594</v>
+        <v>686.06438583843</v>
       </c>
       <c r="S24">
-        <v>0.007357387696368746</v>
+        <v>0.006512350410398083</v>
       </c>
       <c r="T24">
-        <v>0.007357387696368746</v>
+        <v>0.006512350410398084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H25">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I25">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J25">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N25">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O25">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P25">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q25">
-        <v>41.04689528688435</v>
+        <v>45.02133646932</v>
       </c>
       <c r="R25">
-        <v>41.04689528688435</v>
+        <v>405.19202822388</v>
       </c>
       <c r="S25">
-        <v>0.004082235218923165</v>
+        <v>0.003846216952464356</v>
       </c>
       <c r="T25">
-        <v>0.004082235218923165</v>
+        <v>0.003846216952464357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H26">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I26">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J26">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N26">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O26">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P26">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q26">
-        <v>11.68232528373855</v>
+        <v>13.171860542308</v>
       </c>
       <c r="R26">
-        <v>11.68232528373855</v>
+        <v>118.546744880772</v>
       </c>
       <c r="S26">
-        <v>0.00116184182454921</v>
+        <v>0.00112528497122348</v>
       </c>
       <c r="T26">
-        <v>0.00116184182454921</v>
+        <v>0.00112528497122348</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H27">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I27">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J27">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N27">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O27">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P27">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q27">
-        <v>1.515179993194677</v>
+        <v>1.645844821252</v>
       </c>
       <c r="R27">
-        <v>1.515179993194677</v>
+        <v>14.812603391268</v>
       </c>
       <c r="S27">
-        <v>0.0001506891346591921</v>
+        <v>0.0001406061380905231</v>
       </c>
       <c r="T27">
-        <v>0.0001506891346591921</v>
+        <v>0.0001406061380905231</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H28">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I28">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J28">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N28">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O28">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P28">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q28">
-        <v>63.04714737608523</v>
+        <v>85.47943466249066</v>
       </c>
       <c r="R28">
-        <v>63.04714737608523</v>
+        <v>769.314911962416</v>
       </c>
       <c r="S28">
-        <v>0.006270225401274927</v>
+        <v>0.007302591981248367</v>
       </c>
       <c r="T28">
-        <v>0.006270225401274927</v>
+        <v>0.007302591981248367</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H29">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I29">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J29">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N29">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O29">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P29">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q29">
-        <v>99.15320332589327</v>
+        <v>103.6424436565907</v>
       </c>
       <c r="R29">
-        <v>99.15320332589327</v>
+        <v>932.781992909316</v>
       </c>
       <c r="S29">
-        <v>0.009861079525187513</v>
+        <v>0.008854275662350896</v>
       </c>
       <c r="T29">
-        <v>0.009861079525187513</v>
+        <v>0.008854275662350896</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H30">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I30">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J30">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N30">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O30">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P30">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q30">
-        <v>12.26510489782189</v>
+        <v>13.04783455534667</v>
       </c>
       <c r="R30">
-        <v>12.26510489782189</v>
+        <v>117.43051099812</v>
       </c>
       <c r="S30">
-        <v>0.00121980098196791</v>
+        <v>0.001114689309454935</v>
       </c>
       <c r="T30">
-        <v>0.00121980098196791</v>
+        <v>0.001114689309454935</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H31">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I31">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J31">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N31">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O31">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P31">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q31">
-        <v>6.805274540906304</v>
+        <v>7.706096769546667</v>
       </c>
       <c r="R31">
-        <v>6.805274540906304</v>
+        <v>69.35487092592001</v>
       </c>
       <c r="S31">
-        <v>0.0006768046940253147</v>
+        <v>0.0006583394087503168</v>
       </c>
       <c r="T31">
-        <v>0.0006768046940253147</v>
+        <v>0.0006583394087503168</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H32">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I32">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J32">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N32">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O32">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P32">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q32">
-        <v>74.27016946587354</v>
+        <v>84.26927039805733</v>
       </c>
       <c r="R32">
-        <v>74.27016946587354</v>
+        <v>758.4234335825161</v>
       </c>
       <c r="S32">
-        <v>0.007386388163829242</v>
+        <v>0.007199206460645221</v>
       </c>
       <c r="T32">
-        <v>0.007386388163829242</v>
+        <v>0.007199206460645222</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H33">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I33">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J33">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N33">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O33">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P33">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q33">
-        <v>9.632729112800167</v>
+        <v>10.52957870528933</v>
       </c>
       <c r="R33">
-        <v>9.632729112800167</v>
+        <v>94.76620834760401</v>
       </c>
       <c r="S33">
-        <v>0.0009580034193520155</v>
+        <v>0.0008995522411066091</v>
       </c>
       <c r="T33">
-        <v>0.0009580034193520155</v>
+        <v>0.0008995522411066091</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H34">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I34">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J34">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N34">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O34">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P34">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q34">
-        <v>400.8210870895443</v>
+        <v>546.8695610547608</v>
       </c>
       <c r="R34">
-        <v>400.8210870895443</v>
+        <v>4921.826049492847</v>
       </c>
       <c r="S34">
-        <v>0.03986284338359773</v>
+        <v>0.04671960322521566</v>
       </c>
       <c r="T34">
-        <v>0.03986284338359773</v>
+        <v>0.04671960322521567</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H35">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I35">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J35">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N35">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O35">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P35">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q35">
-        <v>630.364677856467</v>
+        <v>663.0705723887276</v>
       </c>
       <c r="R35">
-        <v>630.364677856467</v>
+        <v>5967.635151498548</v>
       </c>
       <c r="S35">
-        <v>0.06269163284398435</v>
+        <v>0.05664676964753569</v>
       </c>
       <c r="T35">
-        <v>0.06269163284398435</v>
+        <v>0.0566467696475357</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H36">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I36">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J36">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N36">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O36">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P36">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q36">
-        <v>77.97518021056446</v>
+        <v>83.47579255959555</v>
       </c>
       <c r="R36">
-        <v>77.97518021056446</v>
+        <v>751.2821330363599</v>
       </c>
       <c r="S36">
-        <v>0.007754862447761231</v>
+        <v>0.007131418870292896</v>
       </c>
       <c r="T36">
-        <v>0.007754862447761231</v>
+        <v>0.007131418870292896</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H37">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I37">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J37">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N37">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O37">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P37">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q37">
-        <v>43.2644085093614</v>
+        <v>49.30109533886222</v>
       </c>
       <c r="R37">
-        <v>43.2644085093614</v>
+        <v>443.70985804976</v>
       </c>
       <c r="S37">
-        <v>0.004302773471864215</v>
+        <v>0.004211840952269656</v>
       </c>
       <c r="T37">
-        <v>0.004302773471864215</v>
+        <v>0.004211840952269656</v>
       </c>
     </row>
   </sheetData>
